--- a/data/KSP.xlsx
+++ b/data/KSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1240" windowWidth="26380" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Snippet" sheetId="1" r:id="rId1"/>

--- a/data/KSP.xlsx
+++ b/data/KSP.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{998121AD-071C-1947-AB04-8E9B88F90624}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables&amp;Commands" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Variables&amp;Commands'!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,18 +23,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>R-Koubou
@@ -6222,13 +6224,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>select( ${1:variable} )
-    case ${2:case}:
-        ${3:{your code here\\}}
-end select</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>while( ${1:condition} )
     ${2:{your code here\\}}
 end while</t>
@@ -6775,11 +6770,18 @@
     <t>returns the value of the waveform's different properties.</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>select( ${1:variable} )
+    case ${2:case}
+        ${3:{your code here\\}}
+end select</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -6816,6 +6818,7 @@
       <sz val="11"/>
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -6956,14 +6959,17 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7224,30 +7230,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F137" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F149" sqref="F149"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="19.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="39.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="94.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="217.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="39.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="94.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="217.85546875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7296,7 +7302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="97.5">
+    <row r="4" spans="1:6" ht="100">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -7312,7 +7318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="58.5">
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -7460,7 +7466,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="136.5">
+    <row r="15" spans="1:6" ht="140">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -7478,7 +7484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="136.5">
+    <row r="16" spans="1:6" ht="140">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -7496,7 +7502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="195">
+    <row r="17" spans="1:6" ht="200">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -7514,7 +7520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="136.5">
+    <row r="18" spans="1:6" ht="140">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -7532,7 +7538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="136.5">
+    <row r="19" spans="1:6" ht="140">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="136.5">
+    <row r="20" spans="1:6" ht="140">
       <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
@@ -7568,7 +7574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="136.5">
+    <row r="21" spans="1:6" ht="140">
       <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
@@ -7586,7 +7592,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="136.5">
+    <row r="22" spans="1:6" ht="140">
       <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="136.5">
+    <row r="23" spans="1:6" ht="140">
       <c r="A23" s="9" t="s">
         <v>49</v>
       </c>
@@ -7622,7 +7628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="136.5">
+    <row r="24" spans="1:6" ht="140">
       <c r="A24" s="9" t="s">
         <v>51</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="136.5">
+    <row r="25" spans="1:6" ht="140">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -7658,7 +7664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="136.5">
+    <row r="26" spans="1:6" ht="140">
       <c r="A26" s="9" t="s">
         <v>55</v>
       </c>
@@ -7676,7 +7682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="136.5">
+    <row r="27" spans="1:6" ht="140">
       <c r="A27" s="9" t="s">
         <v>57</v>
       </c>
@@ -7869,7 +7875,7 @@
         <v>75</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>1781</v>
@@ -7963,7 +7969,7 @@
         <v>85</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>1782</v>
@@ -8021,7 +8027,7 @@
         <v>90</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>1781</v>
@@ -8058,7 +8064,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="58.5">
+    <row r="48" spans="1:6" ht="60">
       <c r="A48" s="9" t="s">
         <v>92</v>
       </c>
@@ -8076,7 +8082,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="97.5">
+    <row r="49" spans="1:6" ht="100">
       <c r="A49" s="9" t="s">
         <v>94</v>
       </c>
@@ -8094,7 +8100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="78">
+    <row r="50" spans="1:6" ht="80">
       <c r="A50" s="9" t="s">
         <v>96</v>
       </c>
@@ -8105,14 +8111,14 @@
         <v>96</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1999</v>
+        <v>2177</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="58.5">
+    <row r="51" spans="1:6" ht="60">
       <c r="A51" s="9" t="s">
         <v>97</v>
       </c>
@@ -8123,7 +8129,7 @@
         <v>97</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="9" t="s">
@@ -9989,7 +9995,7 @@
         <v>1670</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -10330,7 +10336,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="39">
+    <row r="167" spans="1:6" ht="40">
       <c r="A167" s="9" t="s">
         <v>336</v>
       </c>
@@ -10660,7 +10666,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="58.5">
+    <row r="184" spans="1:6" ht="60">
       <c r="A184" s="9" t="s">
         <v>368</v>
       </c>
@@ -10680,7 +10686,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="97.5">
+    <row r="185" spans="1:6" ht="100">
       <c r="A185" s="9" t="s">
         <v>370</v>
       </c>
@@ -11620,7 +11626,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="58.5">
+    <row r="234" spans="1:6" ht="60">
       <c r="A234" s="9" t="s">
         <v>454</v>
       </c>
@@ -11640,7 +11646,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="58.5">
+    <row r="235" spans="1:6" ht="60">
       <c r="A235" s="9" t="s">
         <v>456</v>
       </c>
@@ -12116,7 +12122,7 @@
       <c r="E260" s="13"/>
       <c r="F260" s="10"/>
     </row>
-    <row r="261" spans="1:6" ht="136.5">
+    <row r="261" spans="1:6" ht="140">
       <c r="A261" s="9" t="s">
         <v>492</v>
       </c>
@@ -12182,7 +12188,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="136.5">
+    <row r="265" spans="1:6" ht="140">
       <c r="A265" s="9" t="s">
         <v>498</v>
       </c>
@@ -12403,16 +12409,16 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="20" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B277" s="20" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C277" s="20" t="s">
         <v>2007</v>
       </c>
-      <c r="B277" s="20" t="s">
+      <c r="D277" s="20" t="s">
         <v>2007</v>
-      </c>
-      <c r="C277" s="20" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D277" s="20" t="s">
-        <v>2008</v>
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="9" t="str">
@@ -12783,16 +12789,16 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="20" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B297" s="20" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C297" s="20" t="s">
         <v>2156</v>
       </c>
-      <c r="B297" s="20" t="s">
+      <c r="D297" s="20" t="s">
         <v>2156</v>
-      </c>
-      <c r="C297" s="20" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D297" s="20" t="s">
-        <v>2157</v>
       </c>
       <c r="E297" s="19"/>
       <c r="F297" s="9" t="str">
@@ -12802,16 +12808,16 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="20" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B298" s="20" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C298" s="20" t="s">
         <v>2158</v>
       </c>
-      <c r="B298" s="20" t="s">
+      <c r="D298" s="20" t="s">
         <v>2158</v>
-      </c>
-      <c r="C298" s="20" t="s">
-        <v>2159</v>
-      </c>
-      <c r="D298" s="20" t="s">
-        <v>2159</v>
       </c>
       <c r="E298" s="19"/>
       <c r="F298" s="9" t="str">
@@ -13125,16 +13131,16 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="20" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B315" s="20" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C315" s="20" t="s">
         <v>2009</v>
       </c>
-      <c r="B315" s="20" t="s">
+      <c r="D315" s="20" t="s">
         <v>2009</v>
-      </c>
-      <c r="C315" s="20" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>2010</v>
       </c>
       <c r="E315" s="19"/>
       <c r="F315" s="9" t="str">
@@ -13277,16 +13283,16 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="20" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B323" s="20" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C323" s="20" t="s">
         <v>2011</v>
       </c>
-      <c r="B323" s="20" t="s">
+      <c r="D323" s="20" t="s">
         <v>2011</v>
-      </c>
-      <c r="C323" s="20" t="s">
-        <v>2012</v>
-      </c>
-      <c r="D323" s="20" t="s">
-        <v>2012</v>
       </c>
       <c r="E323" s="19"/>
       <c r="F323" s="9" t="str">
@@ -13296,16 +13302,16 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="20" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B324" s="20" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C324" s="20" t="s">
         <v>2013</v>
       </c>
-      <c r="B324" s="20" t="s">
+      <c r="D324" s="20" t="s">
         <v>2013</v>
-      </c>
-      <c r="C324" s="20" t="s">
-        <v>2014</v>
-      </c>
-      <c r="D324" s="20" t="s">
-        <v>2014</v>
       </c>
       <c r="E324" s="19"/>
       <c r="F324" s="9" t="str">
@@ -13353,16 +13359,16 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="20" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B327" s="20" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C327" s="20" t="s">
         <v>2015</v>
       </c>
-      <c r="B327" s="20" t="s">
+      <c r="D327" s="20" t="s">
         <v>2015</v>
-      </c>
-      <c r="C327" s="20" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D327" s="20" t="s">
-        <v>2016</v>
       </c>
       <c r="E327" s="19"/>
       <c r="F327" s="9" t="str">
@@ -13562,16 +13568,16 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="20" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B338" s="20" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C338" s="20" t="s">
         <v>2017</v>
       </c>
-      <c r="B338" s="20" t="s">
+      <c r="D338" s="20" t="s">
         <v>2017</v>
-      </c>
-      <c r="C338" s="20" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D338" s="20" t="s">
-        <v>2018</v>
       </c>
       <c r="E338" s="19"/>
       <c r="F338" s="9" t="str">
@@ -13638,16 +13644,16 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="20" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B342" s="20" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C342" s="20" t="s">
         <v>2019</v>
       </c>
-      <c r="B342" s="20" t="s">
+      <c r="D342" s="20" t="s">
         <v>2019</v>
-      </c>
-      <c r="C342" s="20" t="s">
-        <v>2020</v>
-      </c>
-      <c r="D342" s="20" t="s">
-        <v>2020</v>
       </c>
       <c r="E342" s="19"/>
       <c r="F342" s="9" t="str">
@@ -13733,16 +13739,16 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="20" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B347" s="20" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C347" s="20" t="s">
         <v>2021</v>
       </c>
-      <c r="B347" s="20" t="s">
+      <c r="D347" s="20" t="s">
         <v>2021</v>
-      </c>
-      <c r="C347" s="20" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D347" s="20" t="s">
-        <v>2022</v>
       </c>
       <c r="E347" s="19"/>
       <c r="F347" s="9" t="str">
@@ -13828,16 +13834,16 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="20" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B352" s="20" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C352" s="20" t="s">
         <v>2023</v>
       </c>
-      <c r="B352" s="20" t="s">
+      <c r="D352" s="20" t="s">
         <v>2023</v>
-      </c>
-      <c r="C352" s="20" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D352" s="20" t="s">
-        <v>2024</v>
       </c>
       <c r="E352" s="19"/>
       <c r="F352" s="9" t="str">
@@ -14189,16 +14195,16 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="20" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C371" s="20" t="s">
         <v>2025</v>
       </c>
-      <c r="B371" s="20" t="s">
+      <c r="D371" s="20" t="s">
         <v>2025</v>
-      </c>
-      <c r="C371" s="20" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D371" s="20" t="s">
-        <v>2026</v>
       </c>
       <c r="E371" s="19"/>
       <c r="F371" s="9" t="str">
@@ -14208,16 +14214,16 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="20" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B372" s="20" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C372" s="20" t="s">
         <v>2027</v>
       </c>
-      <c r="B372" s="20" t="s">
+      <c r="D372" s="20" t="s">
         <v>2027</v>
-      </c>
-      <c r="C372" s="20" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D372" s="20" t="s">
-        <v>2028</v>
       </c>
       <c r="E372" s="19"/>
       <c r="F372" s="9" t="str">
@@ -14227,16 +14233,16 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="20" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B373" s="20" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C373" s="20" t="s">
         <v>2029</v>
       </c>
-      <c r="B373" s="20" t="s">
+      <c r="D373" s="20" t="s">
         <v>2029</v>
-      </c>
-      <c r="C373" s="20" t="s">
-        <v>2030</v>
-      </c>
-      <c r="D373" s="20" t="s">
-        <v>2030</v>
       </c>
       <c r="E373" s="19"/>
       <c r="F373" s="9" t="str">
@@ -14246,16 +14252,16 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="20" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C374" s="20" t="s">
         <v>2031</v>
       </c>
-      <c r="B374" s="20" t="s">
+      <c r="D374" s="20" t="s">
         <v>2031</v>
-      </c>
-      <c r="C374" s="20" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D374" s="20" t="s">
-        <v>2032</v>
       </c>
       <c r="E374" s="19"/>
       <c r="F374" s="9" t="str">
@@ -14265,16 +14271,16 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="20" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C375" s="20" t="s">
         <v>2033</v>
       </c>
-      <c r="B375" s="20" t="s">
+      <c r="D375" s="20" t="s">
         <v>2033</v>
-      </c>
-      <c r="C375" s="20" t="s">
-        <v>2034</v>
-      </c>
-      <c r="D375" s="20" t="s">
-        <v>2034</v>
       </c>
       <c r="E375" s="19"/>
       <c r="F375" s="9" t="str">
@@ -14284,16 +14290,16 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="20" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C376" s="20" t="s">
         <v>2035</v>
       </c>
-      <c r="B376" s="20" t="s">
+      <c r="D376" s="20" t="s">
         <v>2035</v>
-      </c>
-      <c r="C376" s="20" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D376" s="20" t="s">
-        <v>2036</v>
       </c>
       <c r="E376" s="19"/>
       <c r="F376" s="9" t="str">
@@ -14303,16 +14309,16 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="20" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B377" s="20" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C377" s="20" t="s">
         <v>2037</v>
       </c>
-      <c r="B377" s="20" t="s">
+      <c r="D377" s="20" t="s">
         <v>2037</v>
-      </c>
-      <c r="C377" s="20" t="s">
-        <v>2038</v>
-      </c>
-      <c r="D377" s="20" t="s">
-        <v>2038</v>
       </c>
       <c r="E377" s="19"/>
       <c r="F377" s="9" t="str">
@@ -14322,16 +14328,16 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="20" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C378" s="20" t="s">
         <v>2039</v>
       </c>
-      <c r="B378" s="20" t="s">
+      <c r="D378" s="20" t="s">
         <v>2039</v>
-      </c>
-      <c r="C378" s="20" t="s">
-        <v>2040</v>
-      </c>
-      <c r="D378" s="20" t="s">
-        <v>2040</v>
       </c>
       <c r="E378" s="19"/>
       <c r="F378" s="9" t="str">
@@ -14341,16 +14347,16 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="20" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C379" s="20" t="s">
         <v>2041</v>
       </c>
-      <c r="B379" s="20" t="s">
+      <c r="D379" s="20" t="s">
         <v>2041</v>
-      </c>
-      <c r="C379" s="20" t="s">
-        <v>2042</v>
-      </c>
-      <c r="D379" s="20" t="s">
-        <v>2042</v>
       </c>
       <c r="E379" s="19"/>
       <c r="F379" s="9" t="str">
@@ -14740,16 +14746,16 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="20" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B400" s="20" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C400" s="20" t="s">
         <v>2043</v>
       </c>
-      <c r="B400" s="20" t="s">
+      <c r="D400" s="20" t="s">
         <v>2043</v>
-      </c>
-      <c r="C400" s="20" t="s">
-        <v>2044</v>
-      </c>
-      <c r="D400" s="20" t="s">
-        <v>2044</v>
       </c>
       <c r="E400" s="19"/>
       <c r="F400" s="9" t="str">
@@ -14759,16 +14765,16 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="20" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B401" s="20" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C401" s="20" t="s">
         <v>2045</v>
       </c>
-      <c r="B401" s="20" t="s">
+      <c r="D401" s="20" t="s">
         <v>2045</v>
-      </c>
-      <c r="C401" s="20" t="s">
-        <v>2046</v>
-      </c>
-      <c r="D401" s="20" t="s">
-        <v>2046</v>
       </c>
       <c r="E401" s="19"/>
       <c r="F401" s="9" t="str">
@@ -14778,16 +14784,16 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="20" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B402" s="20" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C402" s="20" t="s">
         <v>2047</v>
       </c>
-      <c r="B402" s="20" t="s">
+      <c r="D402" s="20" t="s">
         <v>2047</v>
-      </c>
-      <c r="C402" s="20" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D402" s="20" t="s">
-        <v>2048</v>
       </c>
       <c r="E402" s="19"/>
       <c r="F402" s="9" t="str">
@@ -14797,16 +14803,16 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="20" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B403" s="20" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C403" s="20" t="s">
         <v>2049</v>
       </c>
-      <c r="B403" s="20" t="s">
+      <c r="D403" s="20" t="s">
         <v>2049</v>
-      </c>
-      <c r="C403" s="20" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D403" s="20" t="s">
-        <v>2050</v>
       </c>
       <c r="E403" s="19"/>
       <c r="F403" s="9" t="str">
@@ -14816,16 +14822,16 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="20" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B404" s="20" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C404" s="20" t="s">
         <v>2051</v>
       </c>
-      <c r="B404" s="20" t="s">
+      <c r="D404" s="20" t="s">
         <v>2051</v>
-      </c>
-      <c r="C404" s="20" t="s">
-        <v>2052</v>
-      </c>
-      <c r="D404" s="20" t="s">
-        <v>2052</v>
       </c>
       <c r="E404" s="19"/>
       <c r="F404" s="9" t="str">
@@ -14835,16 +14841,16 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="20" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B405" s="20" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C405" s="20" t="s">
         <v>2053</v>
       </c>
-      <c r="B405" s="20" t="s">
+      <c r="D405" s="20" t="s">
         <v>2053</v>
-      </c>
-      <c r="C405" s="20" t="s">
-        <v>2054</v>
-      </c>
-      <c r="D405" s="20" t="s">
-        <v>2054</v>
       </c>
       <c r="E405" s="19"/>
       <c r="F405" s="9" t="str">
@@ -14854,16 +14860,16 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="20" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B406" s="20" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C406" s="20" t="s">
         <v>2055</v>
       </c>
-      <c r="B406" s="20" t="s">
+      <c r="D406" s="20" t="s">
         <v>2055</v>
-      </c>
-      <c r="C406" s="20" t="s">
-        <v>2056</v>
-      </c>
-      <c r="D406" s="20" t="s">
-        <v>2056</v>
       </c>
       <c r="E406" s="19"/>
       <c r="F406" s="9" t="str">
@@ -14873,16 +14879,16 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="20" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B407" s="20" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C407" s="20" t="s">
         <v>2057</v>
       </c>
-      <c r="B407" s="20" t="s">
+      <c r="D407" s="20" t="s">
         <v>2057</v>
-      </c>
-      <c r="C407" s="20" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D407" s="20" t="s">
-        <v>2058</v>
       </c>
       <c r="E407" s="19"/>
       <c r="F407" s="9" t="str">
@@ -15044,16 +15050,16 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="20" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B416" s="20" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C416" s="20" t="s">
         <v>2059</v>
       </c>
-      <c r="B416" s="20" t="s">
+      <c r="D416" s="20" t="s">
         <v>2059</v>
-      </c>
-      <c r="C416" s="20" t="s">
-        <v>2060</v>
-      </c>
-      <c r="D416" s="20" t="s">
-        <v>2060</v>
       </c>
       <c r="E416" s="19"/>
       <c r="F416" s="9" t="str">
@@ -15177,16 +15183,16 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="20" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B423" s="20" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C423" s="20" t="s">
         <v>2061</v>
       </c>
-      <c r="B423" s="20" t="s">
+      <c r="D423" s="20" t="s">
         <v>2061</v>
-      </c>
-      <c r="C423" s="20" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D423" s="20" t="s">
-        <v>2062</v>
       </c>
       <c r="E423" s="19"/>
       <c r="F423" s="9" t="str">
@@ -15196,16 +15202,16 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="20" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B424" s="20" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C424" s="20" t="s">
         <v>2063</v>
       </c>
-      <c r="B424" s="20" t="s">
+      <c r="D424" s="20" t="s">
         <v>2063</v>
-      </c>
-      <c r="C424" s="20" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D424" s="20" t="s">
-        <v>2064</v>
       </c>
       <c r="E424" s="19"/>
       <c r="F424" s="9" t="str">
@@ -15215,16 +15221,16 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="20" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B425" s="20" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C425" s="20" t="s">
         <v>2065</v>
       </c>
-      <c r="B425" s="20" t="s">
+      <c r="D425" s="20" t="s">
         <v>2065</v>
-      </c>
-      <c r="C425" s="20" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D425" s="20" t="s">
-        <v>2066</v>
       </c>
       <c r="E425" s="19"/>
       <c r="F425" s="9" t="str">
@@ -15234,16 +15240,16 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="20" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B426" s="20" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C426" s="20" t="s">
         <v>2067</v>
       </c>
-      <c r="B426" s="20" t="s">
+      <c r="D426" s="20" t="s">
         <v>2067</v>
-      </c>
-      <c r="C426" s="20" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D426" s="20" t="s">
-        <v>2068</v>
       </c>
       <c r="E426" s="19"/>
       <c r="F426" s="9" t="str">
@@ -15253,16 +15259,16 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="20" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B427" s="20" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C427" s="20" t="s">
         <v>2069</v>
       </c>
-      <c r="B427" s="20" t="s">
+      <c r="D427" s="20" t="s">
         <v>2069</v>
-      </c>
-      <c r="C427" s="20" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D427" s="20" t="s">
-        <v>2070</v>
       </c>
       <c r="E427" s="19"/>
       <c r="F427" s="9" t="str">
@@ -15272,16 +15278,16 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="20" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B428" s="20" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C428" s="20" t="s">
         <v>2071</v>
       </c>
-      <c r="B428" s="20" t="s">
+      <c r="D428" s="20" t="s">
         <v>2071</v>
-      </c>
-      <c r="C428" s="20" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D428" s="20" t="s">
-        <v>2072</v>
       </c>
       <c r="E428" s="19"/>
       <c r="F428" s="9" t="str">
@@ -15291,16 +15297,16 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="20" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B429" s="20" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C429" s="20" t="s">
         <v>2073</v>
       </c>
-      <c r="B429" s="20" t="s">
+      <c r="D429" s="20" t="s">
         <v>2073</v>
-      </c>
-      <c r="C429" s="20" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D429" s="20" t="s">
-        <v>2074</v>
       </c>
       <c r="E429" s="19"/>
       <c r="F429" s="9" t="str">
@@ -15443,16 +15449,16 @@
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="20" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B437" s="20" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C437" s="20" t="s">
         <v>2075</v>
       </c>
-      <c r="B437" s="20" t="s">
+      <c r="D437" s="20" t="s">
         <v>2075</v>
-      </c>
-      <c r="C437" s="20" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D437" s="20" t="s">
-        <v>2076</v>
       </c>
       <c r="E437" s="19"/>
       <c r="F437" s="9" t="str">
@@ -15481,16 +15487,16 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="20" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B439" s="20" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C439" s="20" t="s">
         <v>2077</v>
       </c>
-      <c r="B439" s="20" t="s">
+      <c r="D439" s="20" t="s">
         <v>2077</v>
-      </c>
-      <c r="C439" s="20" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D439" s="20" t="s">
-        <v>2078</v>
       </c>
       <c r="E439" s="19"/>
       <c r="F439" s="9" t="str">
@@ -15652,16 +15658,16 @@
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="20" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B448" s="20" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C448" s="20" t="s">
         <v>2079</v>
       </c>
-      <c r="B448" s="20" t="s">
+      <c r="D448" s="20" t="s">
         <v>2079</v>
-      </c>
-      <c r="C448" s="20" t="s">
-        <v>2080</v>
-      </c>
-      <c r="D448" s="20" t="s">
-        <v>2080</v>
       </c>
       <c r="E448" s="19"/>
       <c r="F448" s="9" t="str">
@@ -16298,16 +16304,16 @@
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="20" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B482" s="20" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C482" s="20" t="s">
         <v>2081</v>
       </c>
-      <c r="B482" s="20" t="s">
+      <c r="D482" s="20" t="s">
         <v>2081</v>
-      </c>
-      <c r="C482" s="20" t="s">
-        <v>2082</v>
-      </c>
-      <c r="D482" s="20" t="s">
-        <v>2082</v>
       </c>
       <c r="E482" s="19"/>
       <c r="F482" s="9" t="str">
@@ -16317,16 +16323,16 @@
     </row>
     <row r="483" spans="1:6">
       <c r="A483" s="20" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B483" s="20" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C483" s="20" t="s">
         <v>2083</v>
       </c>
-      <c r="B483" s="20" t="s">
+      <c r="D483" s="20" t="s">
         <v>2083</v>
-      </c>
-      <c r="C483" s="20" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D483" s="20" t="s">
-        <v>2084</v>
       </c>
       <c r="E483" s="19"/>
       <c r="F483" s="9" t="str">
@@ -16336,16 +16342,16 @@
     </row>
     <row r="484" spans="1:6">
       <c r="A484" s="20" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B484" s="20" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C484" s="20" t="s">
         <v>2085</v>
       </c>
-      <c r="B484" s="20" t="s">
+      <c r="D484" s="20" t="s">
         <v>2085</v>
-      </c>
-      <c r="C484" s="20" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D484" s="20" t="s">
-        <v>2086</v>
       </c>
       <c r="E484" s="19"/>
       <c r="F484" s="9" t="str">
@@ -16355,16 +16361,16 @@
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="20" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B485" s="20" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C485" s="20" t="s">
         <v>2087</v>
       </c>
-      <c r="B485" s="20" t="s">
+      <c r="D485" s="20" t="s">
         <v>2087</v>
-      </c>
-      <c r="C485" s="20" t="s">
-        <v>2088</v>
-      </c>
-      <c r="D485" s="20" t="s">
-        <v>2088</v>
       </c>
       <c r="E485" s="19"/>
       <c r="F485" s="9" t="str">
@@ -16374,16 +16380,16 @@
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="20" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B486" s="20" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C486" s="20" t="s">
         <v>2089</v>
       </c>
-      <c r="B486" s="20" t="s">
+      <c r="D486" s="20" t="s">
         <v>2089</v>
-      </c>
-      <c r="C486" s="20" t="s">
-        <v>2090</v>
-      </c>
-      <c r="D486" s="20" t="s">
-        <v>2090</v>
       </c>
       <c r="E486" s="19"/>
       <c r="F486" s="9" t="str">
@@ -16393,16 +16399,16 @@
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="20" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B487" s="20" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C487" s="20" t="s">
         <v>2091</v>
       </c>
-      <c r="B487" s="20" t="s">
+      <c r="D487" s="20" t="s">
         <v>2091</v>
-      </c>
-      <c r="C487" s="20" t="s">
-        <v>2092</v>
-      </c>
-      <c r="D487" s="20" t="s">
-        <v>2092</v>
       </c>
       <c r="E487" s="19"/>
       <c r="F487" s="9" t="str">
@@ -16412,16 +16418,16 @@
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="20" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B488" s="20" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C488" s="20" t="s">
         <v>2093</v>
       </c>
-      <c r="B488" s="20" t="s">
+      <c r="D488" s="20" t="s">
         <v>2093</v>
-      </c>
-      <c r="C488" s="20" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D488" s="20" t="s">
-        <v>2094</v>
       </c>
       <c r="E488" s="19"/>
       <c r="F488" s="9" t="str">
@@ -16431,16 +16437,16 @@
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="20" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B489" s="20" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C489" s="20" t="s">
         <v>2095</v>
       </c>
-      <c r="B489" s="20" t="s">
+      <c r="D489" s="20" t="s">
         <v>2095</v>
-      </c>
-      <c r="C489" s="20" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D489" s="20" t="s">
-        <v>2096</v>
       </c>
       <c r="E489" s="19"/>
       <c r="F489" s="9" t="str">
@@ -16450,16 +16456,16 @@
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="20" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B490" s="20" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C490" s="20" t="s">
         <v>2097</v>
       </c>
-      <c r="B490" s="20" t="s">
+      <c r="D490" s="20" t="s">
         <v>2097</v>
-      </c>
-      <c r="C490" s="20" t="s">
-        <v>2098</v>
-      </c>
-      <c r="D490" s="20" t="s">
-        <v>2098</v>
       </c>
       <c r="E490" s="19"/>
       <c r="F490" s="9" t="str">
@@ -16469,16 +16475,16 @@
     </row>
     <row r="491" spans="1:6">
       <c r="A491" s="20" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B491" s="20" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C491" s="20" t="s">
         <v>2099</v>
       </c>
-      <c r="B491" s="20" t="s">
+      <c r="D491" s="20" t="s">
         <v>2099</v>
-      </c>
-      <c r="C491" s="20" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D491" s="20" t="s">
-        <v>2100</v>
       </c>
       <c r="E491" s="19"/>
       <c r="F491" s="9" t="str">
@@ -16678,16 +16684,16 @@
     </row>
     <row r="502" spans="1:6">
       <c r="A502" s="20" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B502" s="20" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C502" s="20" t="s">
         <v>2160</v>
       </c>
-      <c r="B502" s="20" t="s">
+      <c r="D502" s="20" t="s">
         <v>2160</v>
-      </c>
-      <c r="C502" s="20" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D502" s="20" t="s">
-        <v>2161</v>
       </c>
       <c r="E502" s="19"/>
       <c r="F502" s="9" t="str">
@@ -16754,16 +16760,16 @@
     </row>
     <row r="506" spans="1:6">
       <c r="A506" s="20" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B506" s="20" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C506" s="20" t="s">
         <v>2162</v>
       </c>
-      <c r="B506" s="20" t="s">
+      <c r="D506" s="20" t="s">
         <v>2162</v>
-      </c>
-      <c r="C506" s="20" t="s">
-        <v>2163</v>
-      </c>
-      <c r="D506" s="20" t="s">
-        <v>2163</v>
       </c>
       <c r="E506" s="19"/>
       <c r="F506" s="9" t="str">
@@ -18084,16 +18090,16 @@
     </row>
     <row r="576" spans="1:6">
       <c r="A576" s="20" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B576" s="20" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C576" s="20" t="s">
         <v>2101</v>
       </c>
-      <c r="B576" s="20" t="s">
+      <c r="D576" s="20" t="s">
         <v>2101</v>
-      </c>
-      <c r="C576" s="20" t="s">
-        <v>2102</v>
-      </c>
-      <c r="D576" s="20" t="s">
-        <v>2102</v>
       </c>
       <c r="E576" s="19"/>
       <c r="F576" s="9" t="str">
@@ -18749,16 +18755,16 @@
     </row>
     <row r="611" spans="1:6">
       <c r="A611" s="20" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B611" s="20" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C611" s="20" t="s">
         <v>2103</v>
       </c>
-      <c r="B611" s="20" t="s">
+      <c r="D611" s="20" t="s">
         <v>2103</v>
-      </c>
-      <c r="C611" s="20" t="s">
-        <v>2104</v>
-      </c>
-      <c r="D611" s="20" t="s">
-        <v>2104</v>
       </c>
       <c r="E611" s="19"/>
       <c r="F611" s="9" t="str">
@@ -18844,16 +18850,16 @@
     </row>
     <row r="616" spans="1:6">
       <c r="A616" s="20" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B616" s="20" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C616" s="20" t="s">
         <v>2105</v>
       </c>
-      <c r="B616" s="20" t="s">
+      <c r="D616" s="20" t="s">
         <v>2105</v>
-      </c>
-      <c r="C616" s="20" t="s">
-        <v>2106</v>
-      </c>
-      <c r="D616" s="20" t="s">
-        <v>2106</v>
       </c>
       <c r="E616" s="19"/>
       <c r="F616" s="9" t="str">
@@ -18920,16 +18926,16 @@
     </row>
     <row r="620" spans="1:6">
       <c r="A620" s="20" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B620" s="20" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C620" s="20" t="s">
         <v>2107</v>
       </c>
-      <c r="B620" s="20" t="s">
+      <c r="D620" s="20" t="s">
         <v>2107</v>
-      </c>
-      <c r="C620" s="20" t="s">
-        <v>2108</v>
-      </c>
-      <c r="D620" s="20" t="s">
-        <v>2108</v>
       </c>
       <c r="E620" s="19"/>
       <c r="F620" s="9" t="str">
@@ -18958,16 +18964,16 @@
     </row>
     <row r="622" spans="1:6">
       <c r="A622" s="20" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B622" s="20" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C622" s="20" t="s">
         <v>2109</v>
       </c>
-      <c r="B622" s="20" t="s">
+      <c r="D622" s="20" t="s">
         <v>2109</v>
-      </c>
-      <c r="C622" s="20" t="s">
-        <v>2110</v>
-      </c>
-      <c r="D622" s="20" t="s">
-        <v>2110</v>
       </c>
       <c r="E622" s="19"/>
       <c r="F622" s="9" t="str">
@@ -19015,16 +19021,16 @@
     </row>
     <row r="625" spans="1:6">
       <c r="A625" s="20" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B625" s="20" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C625" s="20" t="s">
         <v>2111</v>
       </c>
-      <c r="B625" s="20" t="s">
+      <c r="D625" s="20" t="s">
         <v>2111</v>
-      </c>
-      <c r="C625" s="20" t="s">
-        <v>2112</v>
-      </c>
-      <c r="D625" s="20" t="s">
-        <v>2112</v>
       </c>
       <c r="E625" s="19"/>
       <c r="F625" s="9" t="str">
@@ -19034,16 +19040,16 @@
     </row>
     <row r="626" spans="1:6">
       <c r="A626" s="20" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B626" s="20" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C626" s="20" t="s">
         <v>2113</v>
       </c>
-      <c r="B626" s="20" t="s">
+      <c r="D626" s="20" t="s">
         <v>2113</v>
-      </c>
-      <c r="C626" s="20" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D626" s="20" t="s">
-        <v>2114</v>
       </c>
       <c r="E626" s="19"/>
       <c r="F626" s="9" t="str">
@@ -19053,16 +19059,16 @@
     </row>
     <row r="627" spans="1:6">
       <c r="A627" s="20" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B627" s="20" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C627" s="20" t="s">
         <v>2115</v>
       </c>
-      <c r="B627" s="20" t="s">
+      <c r="D627" s="20" t="s">
         <v>2115</v>
-      </c>
-      <c r="C627" s="20" t="s">
-        <v>2116</v>
-      </c>
-      <c r="D627" s="20" t="s">
-        <v>2116</v>
       </c>
       <c r="E627" s="19"/>
       <c r="F627" s="9" t="str">
@@ -19072,16 +19078,16 @@
     </row>
     <row r="628" spans="1:6">
       <c r="A628" s="20" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B628" s="20" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C628" s="20" t="s">
         <v>2117</v>
       </c>
-      <c r="B628" s="20" t="s">
+      <c r="D628" s="20" t="s">
         <v>2117</v>
-      </c>
-      <c r="C628" s="20" t="s">
-        <v>2118</v>
-      </c>
-      <c r="D628" s="20" t="s">
-        <v>2118</v>
       </c>
       <c r="E628" s="19"/>
       <c r="F628" s="9" t="str">
@@ -19091,16 +19097,16 @@
     </row>
     <row r="629" spans="1:6">
       <c r="A629" s="20" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B629" s="20" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C629" s="20" t="s">
         <v>2119</v>
       </c>
-      <c r="B629" s="20" t="s">
+      <c r="D629" s="20" t="s">
         <v>2119</v>
-      </c>
-      <c r="C629" s="20" t="s">
-        <v>2120</v>
-      </c>
-      <c r="D629" s="20" t="s">
-        <v>2120</v>
       </c>
       <c r="E629" s="19"/>
       <c r="F629" s="9" t="str">
@@ -19110,16 +19116,16 @@
     </row>
     <row r="630" spans="1:6">
       <c r="A630" s="20" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B630" s="20" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C630" s="20" t="s">
         <v>2121</v>
       </c>
-      <c r="B630" s="20" t="s">
+      <c r="D630" s="20" t="s">
         <v>2121</v>
-      </c>
-      <c r="C630" s="20" t="s">
-        <v>2122</v>
-      </c>
-      <c r="D630" s="20" t="s">
-        <v>2122</v>
       </c>
       <c r="E630" s="19"/>
       <c r="F630" s="9" t="str">
@@ -19129,16 +19135,16 @@
     </row>
     <row r="631" spans="1:6">
       <c r="A631" s="20" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B631" s="20" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C631" s="20" t="s">
         <v>2123</v>
       </c>
-      <c r="B631" s="20" t="s">
+      <c r="D631" s="20" t="s">
         <v>2123</v>
-      </c>
-      <c r="C631" s="20" t="s">
-        <v>2124</v>
-      </c>
-      <c r="D631" s="20" t="s">
-        <v>2124</v>
       </c>
       <c r="E631" s="19"/>
       <c r="F631" s="9" t="str">
@@ -19148,16 +19154,16 @@
     </row>
     <row r="632" spans="1:6">
       <c r="A632" s="20" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B632" s="20" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C632" s="20" t="s">
         <v>2125</v>
       </c>
-      <c r="B632" s="20" t="s">
+      <c r="D632" s="20" t="s">
         <v>2125</v>
-      </c>
-      <c r="C632" s="20" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D632" s="20" t="s">
-        <v>2126</v>
       </c>
       <c r="E632" s="19"/>
       <c r="F632" s="9" t="str">
@@ -19167,16 +19173,16 @@
     </row>
     <row r="633" spans="1:6">
       <c r="A633" s="20" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B633" s="20" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C633" s="20" t="s">
         <v>2127</v>
       </c>
-      <c r="B633" s="20" t="s">
+      <c r="D633" s="20" t="s">
         <v>2127</v>
-      </c>
-      <c r="C633" s="20" t="s">
-        <v>2128</v>
-      </c>
-      <c r="D633" s="20" t="s">
-        <v>2128</v>
       </c>
       <c r="E633" s="19"/>
       <c r="F633" s="9" t="str">
@@ -19186,16 +19192,16 @@
     </row>
     <row r="634" spans="1:6">
       <c r="A634" s="20" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B634" s="20" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C634" s="20" t="s">
         <v>2129</v>
       </c>
-      <c r="B634" s="20" t="s">
+      <c r="D634" s="20" t="s">
         <v>2129</v>
-      </c>
-      <c r="C634" s="20" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D634" s="20" t="s">
-        <v>2130</v>
       </c>
       <c r="E634" s="19"/>
       <c r="F634" s="9" t="str">
@@ -19205,16 +19211,16 @@
     </row>
     <row r="635" spans="1:6">
       <c r="A635" s="20" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B635" s="20" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C635" s="20" t="s">
         <v>2131</v>
       </c>
-      <c r="B635" s="20" t="s">
+      <c r="D635" s="20" t="s">
         <v>2131</v>
-      </c>
-      <c r="C635" s="20" t="s">
-        <v>2132</v>
-      </c>
-      <c r="D635" s="20" t="s">
-        <v>2132</v>
       </c>
       <c r="E635" s="19"/>
       <c r="F635" s="9" t="str">
@@ -19224,16 +19230,16 @@
     </row>
     <row r="636" spans="1:6">
       <c r="A636" s="20" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B636" s="20" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C636" s="20" t="s">
         <v>2133</v>
       </c>
-      <c r="B636" s="20" t="s">
+      <c r="D636" s="20" t="s">
         <v>2133</v>
-      </c>
-      <c r="C636" s="20" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D636" s="20" t="s">
-        <v>2134</v>
       </c>
       <c r="E636" s="19"/>
       <c r="F636" s="9" t="str">
@@ -19243,16 +19249,16 @@
     </row>
     <row r="637" spans="1:6">
       <c r="A637" s="20" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B637" s="20" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C637" s="20" t="s">
         <v>2135</v>
       </c>
-      <c r="B637" s="20" t="s">
+      <c r="D637" s="20" t="s">
         <v>2135</v>
-      </c>
-      <c r="C637" s="20" t="s">
-        <v>2136</v>
-      </c>
-      <c r="D637" s="20" t="s">
-        <v>2136</v>
       </c>
       <c r="E637" s="19"/>
       <c r="F637" s="9" t="str">
@@ -21029,16 +21035,16 @@
     </row>
     <row r="731" spans="1:6">
       <c r="A731" s="20" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B731" s="20" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C731" s="20" t="s">
         <v>2005</v>
       </c>
-      <c r="B731" s="20" t="s">
+      <c r="D731" s="20" t="s">
         <v>2005</v>
-      </c>
-      <c r="C731" s="20" t="s">
-        <v>2006</v>
-      </c>
-      <c r="D731" s="20" t="s">
-        <v>2006</v>
       </c>
       <c r="E731" s="19"/>
       <c r="F731" s="9" t="str">
@@ -21295,16 +21301,16 @@
     </row>
     <row r="745" spans="1:6">
       <c r="A745" s="20" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B745" s="20" t="s">
         <v>2168</v>
       </c>
-      <c r="B745" s="20" t="s">
+      <c r="C745" s="20" t="s">
         <v>2169</v>
       </c>
-      <c r="C745" s="20" t="s">
+      <c r="D745" s="20" t="s">
         <v>2170</v>
-      </c>
-      <c r="D745" s="20" t="s">
-        <v>2171</v>
       </c>
       <c r="E745" s="19"/>
       <c r="F745" s="9" t="str">
@@ -21656,16 +21662,16 @@
     </row>
     <row r="764" spans="1:6">
       <c r="A764" s="20" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B764" s="20" t="s">
         <v>2173</v>
       </c>
-      <c r="B764" s="20" t="s">
+      <c r="C764" s="20" t="s">
         <v>2174</v>
       </c>
-      <c r="C764" s="20" t="s">
+      <c r="D764" s="20" t="s">
         <v>2175</v>
-      </c>
-      <c r="D764" s="20" t="s">
-        <v>2176</v>
       </c>
       <c r="E764" s="19"/>
       <c r="F764" s="9" t="str">
@@ -21675,7 +21681,7 @@
     </row>
     <row r="765" spans="1:6">
       <c r="A765" s="20" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B765" s="20" t="s">
         <v>1341</v>
@@ -22701,16 +22707,16 @@
     </row>
     <row r="819" spans="1:6">
       <c r="A819" s="20" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B819" s="20" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C819" s="20" t="s">
         <v>2164</v>
       </c>
-      <c r="B819" s="20" t="s">
+      <c r="D819" s="20" t="s">
         <v>2164</v>
-      </c>
-      <c r="C819" s="20" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D819" s="20" t="s">
-        <v>2165</v>
       </c>
       <c r="E819" s="19"/>
       <c r="F819" s="9" t="str">
@@ -23043,16 +23049,16 @@
     </row>
     <row r="837" spans="1:6">
       <c r="A837" s="20" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B837" s="20" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C837" s="20" t="s">
         <v>2166</v>
       </c>
-      <c r="B837" s="20" t="s">
+      <c r="D837" s="20" t="s">
         <v>2166</v>
-      </c>
-      <c r="C837" s="20" t="s">
-        <v>2167</v>
-      </c>
-      <c r="D837" s="20" t="s">
-        <v>2167</v>
       </c>
       <c r="E837" s="19"/>
       <c r="F837" s="9" t="str">
@@ -23100,16 +23106,16 @@
     </row>
     <row r="840" spans="1:6">
       <c r="A840" s="20" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B840" s="20" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C840" s="20" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D840" s="20" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E840" s="19"/>
       <c r="F840" s="9" t="str">
@@ -23119,16 +23125,16 @@
     </row>
     <row r="841" spans="1:6">
       <c r="A841" s="20" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B841" s="20" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C841" s="20" t="s">
         <v>2138</v>
       </c>
-      <c r="B841" s="20" t="s">
+      <c r="D841" s="20" t="s">
         <v>2138</v>
-      </c>
-      <c r="C841" s="20" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D841" s="20" t="s">
-        <v>2139</v>
       </c>
       <c r="E841" s="19"/>
       <c r="F841" s="9" t="str">
@@ -23138,16 +23144,16 @@
     </row>
     <row r="842" spans="1:6">
       <c r="A842" s="20" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B842" s="20" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C842" s="20" t="s">
         <v>2140</v>
       </c>
-      <c r="B842" s="20" t="s">
+      <c r="D842" s="20" t="s">
         <v>2140</v>
-      </c>
-      <c r="C842" s="20" t="s">
-        <v>2141</v>
-      </c>
-      <c r="D842" s="20" t="s">
-        <v>2141</v>
       </c>
       <c r="E842" s="19"/>
       <c r="F842" s="9" t="str">
@@ -23271,16 +23277,16 @@
     </row>
     <row r="849" spans="1:6">
       <c r="A849" s="20" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B849" s="20" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C849" s="20" t="s">
         <v>2142</v>
       </c>
-      <c r="B849" s="20" t="s">
+      <c r="D849" s="20" t="s">
         <v>2142</v>
-      </c>
-      <c r="C849" s="20" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D849" s="20" t="s">
-        <v>2143</v>
       </c>
       <c r="E849" s="19"/>
       <c r="F849" s="9" t="str">
@@ -23290,16 +23296,16 @@
     </row>
     <row r="850" spans="1:6">
       <c r="A850" s="20" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B850" s="20" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C850" s="20" t="s">
         <v>2144</v>
       </c>
-      <c r="B850" s="20" t="s">
+      <c r="D850" s="20" t="s">
         <v>2144</v>
-      </c>
-      <c r="C850" s="20" t="s">
-        <v>2145</v>
-      </c>
-      <c r="D850" s="20" t="s">
-        <v>2145</v>
       </c>
       <c r="E850" s="19"/>
       <c r="F850" s="9" t="str">
@@ -23309,16 +23315,16 @@
     </row>
     <row r="851" spans="1:6">
       <c r="A851" s="20" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B851" s="20" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C851" s="20" t="s">
         <v>2146</v>
       </c>
-      <c r="B851" s="20" t="s">
+      <c r="D851" s="20" t="s">
         <v>2146</v>
-      </c>
-      <c r="C851" s="20" t="s">
-        <v>2147</v>
-      </c>
-      <c r="D851" s="20" t="s">
-        <v>2147</v>
       </c>
       <c r="E851" s="19"/>
       <c r="F851" s="9" t="str">
@@ -24455,10 +24461,10 @@
         <v>1617</v>
       </c>
       <c r="C911" s="20" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D911" s="20" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E911" s="19"/>
       <c r="F911" s="9" t="str">
@@ -24474,10 +24480,10 @@
         <v>1618</v>
       </c>
       <c r="C912" s="20" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D912" s="20" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E912" s="19"/>
       <c r="F912" s="9" t="str">
@@ -24493,10 +24499,10 @@
         <v>1619</v>
       </c>
       <c r="C913" s="20" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D913" s="20" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E913" s="19"/>
       <c r="F913" s="9" t="str">
@@ -24512,10 +24518,10 @@
         <v>1620</v>
       </c>
       <c r="C914" s="20" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D914" s="20" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E914" s="19"/>
       <c r="F914" s="9" t="str">
@@ -24531,10 +24537,10 @@
         <v>1621</v>
       </c>
       <c r="C915" s="20" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D915" s="20" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E915" s="19"/>
       <c r="F915" s="9" t="str">
@@ -24550,10 +24556,10 @@
         <v>1622</v>
       </c>
       <c r="C916" s="20" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D916" s="20" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E916" s="19"/>
       <c r="F916" s="9" t="str">
@@ -24569,10 +24575,10 @@
         <v>1623</v>
       </c>
       <c r="C917" s="20" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D917" s="20" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E917" s="19"/>
       <c r="F917" s="9" t="str">
@@ -24588,10 +24594,10 @@
         <v>1624</v>
       </c>
       <c r="C918" s="20" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D918" s="20" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E918" s="19"/>
       <c r="F918" s="9" t="str">
@@ -24641,7 +24647,7 @@
       <c r="F921"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/data/KSP.xlsx
+++ b/data/KSP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5751E0D-EFB9-A54C-9846-0688ECE3B072}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11F574B-9AA1-EE4D-8F6E-145B1351BCC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="2220" windowWidth="35480" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="2321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="2321">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -8178,7 +8178,9 @@
         <v>2179</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="140">
       <c r="A24" s="9" t="s">

--- a/data/KSP.xlsx
+++ b/data/KSP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C57A9-7332-4C41-AF2C-3416E76FE6DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA25FEF-B024-DA48-8853-37A8CA43F19B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="2220" windowWidth="35480" windowHeight="17700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="2040" windowWidth="35480" windowHeight="17700" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original　Snippet" sheetId="2" r:id="rId1"/>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="2316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="2317">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -7704,6 +7704,10 @@
   </si>
   <si>
     <t>declare polyphonic $${1:name}</t>
+  </si>
+  <si>
+    <t>Variable</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -8226,7 +8230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8718881-2135-F74A-92AC-194DD2FAA27A}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
@@ -8796,7 +8800,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20"/>
@@ -8854,106 +8858,6 @@
       <c r="E3" s="15"/>
       <c r="F3" s="8" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>2148</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2148</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>2148</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2149</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9471,13 +9375,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EF9006-51C1-8B4B-B9A3-BB18B251309C}">
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20"/>
@@ -9511,7 +9415,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>1611</v>
+        <v>2316</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9521,3811 +9425,3801 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>107</v>
+        <v>1774</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>107</v>
+        <v>1774</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>107</v>
+        <v>1774</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>108</v>
+        <v>1798</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>109</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>1785</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>112</v>
+        <v>2148</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>112</v>
+        <v>2148</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>112</v>
+        <v>2148</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="15"/>
+        <v>2149</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>1634</v>
+      </c>
       <c r="F6" s="8" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="A8" s="9" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>129</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>1637</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>137</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>1637</v>
+      </c>
       <c r="F20" s="8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>1637</v>
+      </c>
       <c r="F21" s="8" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="15"/>
+        <v>143</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>1637</v>
+      </c>
       <c r="F22" s="8" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1809</v>
+        <v>146</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>1665</v>
+        <v>1637</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1810</v>
+        <v>149</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>1665</v>
+        <v>1637</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1811</v>
+        <v>152</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>1666</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E26" s="15"/>
       <c r="F26" s="8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>1667</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E27" s="15"/>
       <c r="F27" s="8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>1638</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E28" s="15"/>
       <c r="F28" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>1638</v>
+        <v>1665</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="27" customFormat="1">
-      <c r="A30" s="9" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="15"/>
+        <v>1811</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>1635</v>
+      </c>
       <c r="F31" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="15"/>
+        <v>1812</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>1666</v>
+      </c>
       <c r="F32" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1638</v>
+        <v>1667</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>1668</v>
+        <v>1638</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>1669</v>
+        <v>1638</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>1756</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="27" customFormat="1">
+      <c r="A36" s="9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>1640</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E37" s="15"/>
       <c r="F37" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>1640</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E38" s="15"/>
       <c r="F38" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>1771</v>
+        <v>181</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1771</v>
+        <v>181</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>1771</v>
+        <v>181</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>1772</v>
+        <v>1638</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>1773</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="9"/>
+      <c r="A40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>1671</v>
+        <v>1756</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>1761</v>
+        <v>1640</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1953</v>
+        <v>1821</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>1762</v>
+        <v>1640</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
-        <v>201</v>
+        <v>1771</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>201</v>
+        <v>1771</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>201</v>
+        <v>1771</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>1672</v>
+        <v>1772</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>202</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>1827</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="A46" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1757</v>
+        <v>1670</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1954</v>
+        <v>1825</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>1673</v>
+        <v>1761</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="27" customFormat="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="8" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>1673</v>
+        <v>1762</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>1675</v>
+        <v>1763</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="8" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>1676</v>
+        <v>1757</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>1668</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1967</v>
+        <v>1954</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1757</v>
+        <v>1673</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="27" customFormat="1">
       <c r="A56" s="8" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1834</v>
+        <v>1955</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="9" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="9"/>
+      <c r="A58" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1838</v>
+        <v>1967</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>1681</v>
+        <v>1757</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="27" customFormat="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>1758</v>
+        <v>1677</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="9" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="9"/>
+      <c r="A63" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="A64" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="E67" s="15" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="27" customFormat="1">
+      <c r="A68" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E70" s="15" t="s">
         <v>1682</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="9" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="9"/>
+      <c r="F70" s="8" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1956</v>
+        <v>1841</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>1641</v>
+        <v>1683</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>1765</v>
+        <v>1682</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E75" s="15"/>
+        <v>1845</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>1764</v>
+      </c>
       <c r="F75" s="8" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>1849</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>256</v>
-      </c>
+      <c r="A76" s="9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="9"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="8" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1958</v>
+        <v>1846</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>1686</v>
+        <v>1641</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="9" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="9"/>
+      <c r="A79" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>1643</v>
+        <v>1765</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1851</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>1644</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E81" s="15"/>
       <c r="F81" s="8" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1959</v>
+        <v>1849</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>1759</v>
+        <v>1642</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1852</v>
+        <v>1957</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1853</v>
+        <v>1958</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>272</v>
-      </c>
+      <c r="A85" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>1767</v>
+        <v>1643</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="8" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>1746</v>
+        <v>1644</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="8" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1857</v>
+        <v>1959</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>1747</v>
+        <v>1759</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>1747</v>
+        <v>1687</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="27" customFormat="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="8" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>1747</v>
+        <v>1688</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="8" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>1634</v>
+        <v>1766</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="8" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>1645</v>
+        <v>1767</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>2143</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E93" s="15"/>
+        <v>1856</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>1746</v>
+      </c>
       <c r="F93" s="8" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>1960</v>
+        <v>1857</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>1689</v>
+        <v>1747</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>1961</v>
+        <v>1858</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>1690</v>
+        <v>1747</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="27" customFormat="1">
       <c r="A96" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>1644</v>
+        <v>1747</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>1748</v>
+        <v>1634</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="8" t="s">
-        <v>1768</v>
+        <v>285</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>1768</v>
+        <v>285</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>1864</v>
+        <v>285</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>1861</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>1749</v>
+        <v>1645</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>1769</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="8" t="s">
-        <v>1742</v>
+        <v>286</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>1742</v>
+        <v>286</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>1742</v>
+        <v>286</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>1749</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E99" s="15"/>
       <c r="F99" s="8" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="27" customFormat="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="8" t="s">
-        <v>1744</v>
+        <v>288</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>1744</v>
+        <v>288</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>1744</v>
+        <v>288</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1866</v>
+        <v>1960</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>1749</v>
+        <v>1689</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>1745</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1867</v>
+        <v>1961</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>1646</v>
+        <v>1690</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="E102" s="15" t="s">
         <v>1644</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>1691</v>
+        <v>1748</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="8" t="s">
-        <v>302</v>
+        <v>1768</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>302</v>
+        <v>1768</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>1870</v>
+        <v>1768</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>1864</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>1692</v>
+        <v>1749</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>303</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="8" t="s">
-        <v>304</v>
+        <v>1742</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>304</v>
+        <v>1742</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>304</v>
+        <v>1742</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>1693</v>
+        <v>1749</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="27" customFormat="1">
       <c r="A106" s="8" t="s">
-        <v>305</v>
+        <v>1744</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>305</v>
+        <v>1744</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>305</v>
+        <v>1744</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1962</v>
+        <v>1866</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>306</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="8" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>1694</v>
+        <v>1646</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="8" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="8" t="s">
-        <v>2150</v>
+        <v>300</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>2150</v>
+        <v>300</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>2150</v>
+        <v>300</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>2151</v>
+        <v>1869</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="40">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="8" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>314</v>
+        <v>1693</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>1696</v>
+        <v>1760</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="8" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1964</v>
+        <v>1872</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>1648</v>
+        <v>1694</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="8" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1965</v>
+        <v>1873</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="8" t="s">
-        <v>321</v>
+        <v>2150</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>321</v>
+        <v>2150</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>321</v>
+        <v>2150</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1966</v>
+        <v>2151</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>1650</v>
+        <v>1695</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="8" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>1651</v>
+        <v>1695</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="9" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="9"/>
-    </row>
-    <row r="118" spans="1:6" s="27" customFormat="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="40">
+      <c r="A117" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1877</v>
+        <v>1963</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1878</v>
+        <v>1964</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>1697</v>
+        <v>1648</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="8" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1879</v>
+        <v>1965</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>1697</v>
+        <v>1649</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="8" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1880</v>
+        <v>1966</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>1697</v>
+        <v>1650</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>1697</v>
+        <v>1651</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="27" customFormat="1">
-      <c r="A123" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="9"/>
+    </row>
+    <row r="124" spans="1:6" s="27" customFormat="1">
       <c r="A124" s="8" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="E124" s="15" t="s">
         <v>1697</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="8" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="8" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="60">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="8" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F128" s="17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="100">
+        <v>1697</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="27" customFormat="1">
       <c r="A129" s="8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>1701</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="27" customFormat="1">
+        <v>1697</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="8" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="8" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="9" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="9"/>
+      <c r="A132" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="8" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="60">
       <c r="A134" s="8" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>1704</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>1652</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="100">
       <c r="A135" s="8" t="s">
-        <v>2152</v>
+        <v>347</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>2152</v>
+        <v>347</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>2152</v>
+        <v>347</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>2153</v>
+        <v>1888</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>1701</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="27" customFormat="1">
       <c r="A136" s="8" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>1653</v>
+        <v>1702</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="8" t="s">
-        <v>2154</v>
+        <v>351</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>2154</v>
+        <v>351</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>2154</v>
+        <v>351</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>2155</v>
+        <v>1890</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>1653</v>
+        <v>1697</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>1894</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="27" customFormat="1">
+      <c r="A138" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="8" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="8" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="8" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="8" t="s">
-        <v>367</v>
+        <v>2154</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>367</v>
+        <v>2154</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>367</v>
+        <v>2154</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>1898</v>
+        <v>2155</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>1707</v>
+        <v>1653</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="9" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="9"/>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="A144" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="27" customFormat="1">
       <c r="A145" s="8" t="s">
-        <v>2158</v>
+        <v>361</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>2158</v>
+        <v>361</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>2158</v>
+        <v>361</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>2159</v>
+        <v>1895</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="8" t="s">
-        <v>371</v>
+        <v>2156</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>371</v>
+        <v>2156</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>371</v>
+        <v>2156</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1900</v>
+        <v>2157</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>1709</v>
+        <v>1654</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>1710</v>
+        <v>1654</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="8" t="s">
-        <v>2160</v>
+        <v>367</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>2160</v>
+        <v>367</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>2160</v>
+        <v>367</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>2161</v>
+        <v>1898</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>1902</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>376</v>
-      </c>
+      <c r="A150" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="9"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="8" t="s">
-        <v>1776</v>
+        <v>2158</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>1776</v>
+        <v>2158</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>1776</v>
+        <v>2158</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>1903</v>
+        <v>2159</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>1777</v>
+        <v>1708</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>1778</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="8" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="8" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="8" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>1655</v>
+        <v>1710</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="9" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="9"/>
+      <c r="A155" s="8" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="8" t="s">
-        <v>385</v>
+        <v>1776</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>385</v>
+        <v>1776</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>385</v>
+        <v>1776</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>1713</v>
+        <v>1777</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>386</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="8" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>1656</v>
+        <v>1709</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="8" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>390</v>
+        <v>1905</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>1657</v>
+        <v>1710</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="8" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>393</v>
+        <v>1906</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>1910</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>1658</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>396</v>
-      </c>
+      <c r="A161" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="9"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="8" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="8" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>1716</v>
+        <v>1656</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="8" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E165" s="15" t="s">
         <v>1657</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="8" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1914</v>
+        <v>393</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>1717</v>
+        <v>1657</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>1718</v>
+        <v>1658</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="8" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>1659</v>
+        <v>1714</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="8" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="8" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="8" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1919</v>
+        <v>404</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>1719</v>
+        <v>1657</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="8" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="E172" s="15" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="8" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="E173" s="15" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="8" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="E174" s="15" t="s">
-        <v>1720</v>
+        <v>1659</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="8" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>425</v>
+        <v>1917</v>
       </c>
       <c r="E175" s="15" t="s">
-        <v>1657</v>
+        <v>1719</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="8" t="s">
-        <v>1779</v>
+        <v>414</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>1779</v>
+        <v>414</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>1779</v>
+        <v>414</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>1784</v>
+        <v>1719</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" s="27" customFormat="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="8" t="s">
-        <v>1780</v>
+        <v>416</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>1780</v>
+        <v>416</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>1780</v>
+        <v>416</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="E177" s="15" t="s">
-        <v>1784</v>
+        <v>1719</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>1783</v>
+        <v>417</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="8" t="s">
-        <v>1781</v>
+        <v>418</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>1781</v>
+        <v>418</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>1781</v>
+        <v>418</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="E178" s="15" t="s">
-        <v>1784</v>
+        <v>1720</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>1783</v>
+        <v>419</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="8" t="s">
-        <v>1782</v>
+        <v>420</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>1782</v>
+        <v>420</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>1782</v>
+        <v>420</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>1784</v>
+        <v>1719</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1783</v>
+        <v>421</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="9" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="9"/>
+      <c r="A180" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1927</v>
+        <v>425</v>
       </c>
       <c r="E181" s="15" t="s">
-        <v>1721</v>
+        <v>1657</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="8" t="s">
-        <v>429</v>
+        <v>1779</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>429</v>
+        <v>1779</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>429</v>
+        <v>1779</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="E182" s="15" t="s">
-        <v>1721</v>
+        <v>1784</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="60">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="27" customFormat="1">
       <c r="A183" s="8" t="s">
-        <v>431</v>
+        <v>1780</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>431</v>
+        <v>1780</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E183" s="13" t="s">
-        <v>1721</v>
+        <v>1780</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E183" s="15" t="s">
+        <v>1784</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="60">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="8" t="s">
-        <v>433</v>
+        <v>1781</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>433</v>
+        <v>1781</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E184" s="13" t="s">
-        <v>1721</v>
+        <v>1781</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E184" s="15" t="s">
+        <v>1784</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>434</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="8" t="s">
-        <v>1661</v>
+        <v>1782</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>1661</v>
+        <v>1782</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E185" s="13"/>
+        <v>1782</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E185" s="15" t="s">
+        <v>1784</v>
+      </c>
       <c r="F185" s="8" t="s">
-        <v>1662</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E186" s="15"/>
-      <c r="F186" s="8" t="s">
-        <v>436</v>
-      </c>
+      <c r="A186" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="9"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="8" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E187" s="15"/>
+        <v>1927</v>
+      </c>
+      <c r="E187" s="15" t="s">
+        <v>1721</v>
+      </c>
       <c r="F187" s="8" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="8" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E188" s="15"/>
+        <v>1928</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>1721</v>
+      </c>
       <c r="F188" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="60">
       <c r="A189" s="8" t="s">
-        <v>2162</v>
+        <v>431</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>2162</v>
+        <v>431</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>2163</v>
-      </c>
-      <c r="E189" s="15" t="s">
-        <v>1660</v>
+        <v>431</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>1721</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="60">
       <c r="A190" s="8" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E190" s="15" t="s">
-        <v>1660</v>
+        <v>433</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>1721</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="8" t="s">
-        <v>2164</v>
+        <v>1661</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>2164</v>
+        <v>1661</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>2165</v>
-      </c>
-      <c r="E191" s="15" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F191" s="8"/>
-    </row>
-    <row r="192" spans="1:6" s="27" customFormat="1">
+        <v>1661</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E191" s="13"/>
+      <c r="F191" s="8" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="8" t="s">
-        <v>1623</v>
+        <v>435</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>1623</v>
+        <v>435</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>1623</v>
+        <v>435</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1932</v>
-      </c>
-      <c r="E192" s="15" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F192" s="8"/>
+        <v>435</v>
+      </c>
+      <c r="E192" s="15"/>
+      <c r="F192" s="8" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="9" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="9"/>
+      <c r="A193" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E193" s="15"/>
+      <c r="F193" s="8" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="8" t="s">
-        <v>2166</v>
+        <v>439</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>2166</v>
+        <v>439</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>2166</v>
+        <v>439</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>2167</v>
-      </c>
-      <c r="E194" s="15" t="s">
-        <v>1722</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="E194" s="15"/>
       <c r="F194" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="8" t="s">
-        <v>443</v>
+        <v>2162</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>443</v>
+        <v>2162</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>443</v>
+        <v>2162</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1933</v>
+        <v>2163</v>
       </c>
       <c r="E195" s="15" t="s">
-        <v>1722</v>
+        <v>1660</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="8" t="s">
-        <v>2168</v>
+        <v>441</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>2168</v>
+        <v>441</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>2168</v>
+        <v>441</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>2169</v>
+        <v>1931</v>
       </c>
       <c r="E196" s="15" t="s">
-        <v>1723</v>
+        <v>1660</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="8" t="s">
-        <v>445</v>
+        <v>2164</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>445</v>
+        <v>2164</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>445</v>
+        <v>2164</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1934</v>
+        <v>2165</v>
       </c>
       <c r="E197" s="15" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>1714</v>
+      </c>
+      <c r="F197" s="8"/>
+    </row>
+    <row r="198" spans="1:6" s="27" customFormat="1">
       <c r="A198" s="8" t="s">
-        <v>2170</v>
+        <v>1623</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>2170</v>
+        <v>1623</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>2170</v>
+        <v>1623</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>2171</v>
+        <v>1932</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>444</v>
-      </c>
+        <v>1714</v>
+      </c>
+      <c r="F198" s="8"/>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E199" s="15" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>444</v>
-      </c>
+      <c r="A199" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="9"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="8" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="E200" s="15" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="F200" s="8" t="s">
         <v>444</v>
@@ -13333,19 +13227,19 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="E201" s="15" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="F201" s="8" t="s">
         <v>444</v>
@@ -13353,34 +13247,36 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="8" t="s">
-        <v>448</v>
+        <v>2168</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>448</v>
+        <v>2168</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>448</v>
+        <v>2168</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1937</v>
+        <v>2169</v>
       </c>
       <c r="E202" s="15" t="s">
         <v>1723</v>
       </c>
-      <c r="F202" s="8"/>
+      <c r="F202" s="8" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="E203" s="15" t="s">
         <v>1723</v>
@@ -13389,206 +13285,204 @@
         <v>444</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="27" customFormat="1">
+    <row r="204" spans="1:6">
       <c r="A204" s="8" t="s">
-        <v>450</v>
+        <v>2170</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>450</v>
+        <v>2170</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>450</v>
+        <v>2170</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1939</v>
+        <v>2171</v>
       </c>
       <c r="E204" s="15" t="s">
-        <v>1726</v>
-      </c>
-      <c r="F204" s="8"/>
+        <v>1724</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="9" t="s">
-        <v>1625</v>
-      </c>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="9"/>
+      <c r="A205" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="8" t="s">
-        <v>451</v>
+        <v>2172</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>451</v>
+        <v>2172</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>451</v>
+        <v>2172</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1940</v>
+        <v>2173</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="E207" s="15" t="s">
-        <v>1750</v>
+        <v>1725</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="8" t="s">
-        <v>2174</v>
+        <v>448</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>2174</v>
+        <v>448</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>2174</v>
+        <v>448</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>2175</v>
+        <v>1937</v>
       </c>
       <c r="E208" s="15" t="s">
-        <v>1751</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>458</v>
-      </c>
+        <v>1723</v>
+      </c>
+      <c r="F208" s="8"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="8" t="s">
-        <v>2176</v>
+        <v>449</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>2176</v>
+        <v>449</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>2176</v>
+        <v>449</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>2177</v>
+        <v>1938</v>
       </c>
       <c r="E209" s="15" t="s">
-        <v>1751</v>
+        <v>1723</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="27" customFormat="1">
       <c r="A210" s="8" t="s">
-        <v>2178</v>
+        <v>450</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>2178</v>
+        <v>450</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>2178</v>
+        <v>450</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>2179</v>
+        <v>1939</v>
       </c>
       <c r="E210" s="15" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F210" s="8" t="s">
-        <v>462</v>
-      </c>
+        <v>1726</v>
+      </c>
+      <c r="F210" s="8"/>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="8" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>2180</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>2180</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E211" s="15" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>464</v>
-      </c>
+      <c r="A211" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="9"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="8" t="s">
-        <v>2182</v>
+        <v>451</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>2182</v>
+        <v>451</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>2182</v>
+        <v>451</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>2183</v>
+        <v>1940</v>
       </c>
       <c r="E212" s="15" t="s">
-        <v>1752</v>
+        <v>1727</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E213" s="15" t="s">
         <v>1750</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="8" t="s">
-        <v>457</v>
+        <v>2174</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>457</v>
+        <v>2174</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>457</v>
+        <v>2174</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1943</v>
+        <v>2175</v>
       </c>
       <c r="E214" s="15" t="s">
         <v>1751</v>
@@ -13597,18 +13491,18 @@
         <v>458</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="27" customFormat="1">
+    <row r="215" spans="1:6">
       <c r="A215" s="8" t="s">
-        <v>459</v>
+        <v>2176</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>459</v>
+        <v>2176</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>459</v>
+        <v>2176</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1944</v>
+        <v>2177</v>
       </c>
       <c r="E215" s="15" t="s">
         <v>1751</v>
@@ -13619,16 +13513,16 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="8" t="s">
-        <v>461</v>
+        <v>2178</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>461</v>
+        <v>2178</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>461</v>
+        <v>2178</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1945</v>
+        <v>2179</v>
       </c>
       <c r="E216" s="15" t="s">
         <v>1752</v>
@@ -13639,16 +13533,16 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="8" t="s">
-        <v>463</v>
+        <v>2180</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>463</v>
+        <v>2180</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>463</v>
+        <v>2180</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1946</v>
+        <v>2181</v>
       </c>
       <c r="E217" s="15" t="s">
         <v>1752</v>
@@ -13659,16 +13553,16 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="8" t="s">
-        <v>465</v>
+        <v>2182</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>465</v>
+        <v>2182</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>465</v>
+        <v>2182</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1947</v>
+        <v>2183</v>
       </c>
       <c r="E218" s="15" t="s">
         <v>1752</v>
@@ -13679,123 +13573,147 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="8" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="E219" s="15" t="s">
-        <v>1668</v>
+        <v>1750</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="9" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="9"/>
-    </row>
-    <row r="221" spans="1:6" ht="140">
+      <c r="A220" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E220" s="15" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="27" customFormat="1">
       <c r="A221" s="8" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E221" s="13"/>
+        <v>459</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E221" s="15" t="s">
+        <v>1751</v>
+      </c>
       <c r="F221" s="8" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="8" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="E222" s="15" t="s">
-        <v>1728</v>
+        <v>1752</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="9" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="9"/>
+      <c r="A223" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E223" s="15" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="E224" s="15"/>
+        <v>1947</v>
+      </c>
+      <c r="E224" s="15" t="s">
+        <v>1752</v>
+      </c>
       <c r="F224" s="8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="8" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="E225" s="15" t="s">
-        <v>1753</v>
+        <v>1668</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="9" t="s">
-        <v>2185</v>
+        <v>1626</v>
       </c>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -13803,141 +13721,117 @@
       <c r="E226" s="12"/>
       <c r="F226" s="9"/>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" ht="140">
       <c r="A227" s="8" t="s">
-        <v>2186</v>
+        <v>469</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>2186</v>
+        <v>469</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>2186</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>2187</v>
-      </c>
-      <c r="E227" s="15" t="s">
-        <v>2188</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E227" s="13"/>
       <c r="F227" s="8" t="s">
-        <v>2184</v>
+        <v>470</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="8" t="s">
-        <v>2189</v>
+        <v>471</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>2189</v>
+        <v>471</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>2189</v>
+        <v>471</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>2190</v>
+        <v>1950</v>
       </c>
       <c r="E228" s="15" t="s">
-        <v>2188</v>
+        <v>1728</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>2184</v>
+        <v>472</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="8" t="s">
-        <v>2191</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>2191</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>2191</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>2192</v>
-      </c>
-      <c r="E229" s="15" t="s">
-        <v>2188</v>
-      </c>
-      <c r="F229" s="8" t="s">
-        <v>2184</v>
-      </c>
+      <c r="A229" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="9"/>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="8" t="s">
-        <v>2193</v>
+        <v>473</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>2193</v>
+        <v>473</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>2193</v>
+        <v>473</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>2194</v>
-      </c>
-      <c r="E230" s="15" t="s">
-        <v>2195</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="E230" s="15"/>
       <c r="F230" s="8" t="s">
-        <v>2184</v>
+        <v>474</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="8" t="s">
-        <v>2196</v>
+        <v>476</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>2196</v>
+        <v>476</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>2196</v>
+        <v>476</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>2197</v>
+        <v>1952</v>
       </c>
       <c r="E231" s="15" t="s">
-        <v>2198</v>
+        <v>1753</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>2184</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="8" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>2199</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>2199</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>2200</v>
-      </c>
-      <c r="E232" s="15" t="s">
-        <v>2201</v>
-      </c>
-      <c r="F232" s="8" t="s">
-        <v>2184</v>
-      </c>
+      <c r="A232" s="9" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B232" s="9"/>
+      <c r="C232" s="9"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="9"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="8" t="s">
-        <v>2202</v>
+        <v>2186</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>2202</v>
+        <v>2186</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>2202</v>
+        <v>2186</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>2203</v>
+        <v>2187</v>
       </c>
       <c r="E233" s="15" t="s">
-        <v>2201</v>
+        <v>2188</v>
       </c>
       <c r="F233" s="8" t="s">
         <v>2184</v>
@@ -13945,16 +13839,16 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="8" t="s">
-        <v>2204</v>
+        <v>2189</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>2204</v>
+        <v>2189</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>2204</v>
+        <v>2189</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>2205</v>
+        <v>2190</v>
       </c>
       <c r="E234" s="15" t="s">
         <v>2188</v>
@@ -13965,19 +13859,19 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="8" t="s">
-        <v>2206</v>
+        <v>2191</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>2206</v>
+        <v>2191</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>2206</v>
+        <v>2191</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>2207</v>
+        <v>2192</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="F235" s="8" t="s">
         <v>2184</v>
@@ -13985,73 +13879,79 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="8" t="s">
-        <v>2208</v>
+        <v>2193</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>2208</v>
+        <v>2193</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>2208</v>
+        <v>2193</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>2209</v>
-      </c>
-      <c r="E236" s="15"/>
+        <v>2194</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>2195</v>
+      </c>
       <c r="F236" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="8" t="s">
-        <v>2210</v>
+        <v>2196</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>2210</v>
+        <v>2196</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>2210</v>
+        <v>2196</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>2211</v>
-      </c>
-      <c r="E237" s="15"/>
+        <v>2197</v>
+      </c>
+      <c r="E237" s="15" t="s">
+        <v>2198</v>
+      </c>
       <c r="F237" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="8" t="s">
-        <v>2212</v>
+        <v>2199</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>2212</v>
+        <v>2199</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>2212</v>
+        <v>2199</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>2213</v>
-      </c>
-      <c r="E238" s="15"/>
+        <v>2200</v>
+      </c>
+      <c r="E238" s="15" t="s">
+        <v>2201</v>
+      </c>
       <c r="F238" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="27" customFormat="1">
+    <row r="239" spans="1:6">
       <c r="A239" s="8" t="s">
-        <v>2214</v>
+        <v>2202</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>2214</v>
+        <v>2202</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>2214</v>
+        <v>2202</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>2215</v>
+        <v>2203</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>2188</v>
+        <v>2201</v>
       </c>
       <c r="F239" s="8" t="s">
         <v>2184</v>
@@ -14059,16 +13959,16 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="8" t="s">
-        <v>2216</v>
+        <v>2204</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>2216</v>
+        <v>2204</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>2216</v>
+        <v>2204</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>2217</v>
+        <v>2205</v>
       </c>
       <c r="E240" s="15" t="s">
         <v>2188</v>
@@ -14079,19 +13979,19 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="8" t="s">
-        <v>2218</v>
+        <v>2206</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>2218</v>
+        <v>2206</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>2218</v>
+        <v>2206</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>2219</v>
+        <v>2207</v>
       </c>
       <c r="E241" s="15" t="s">
-        <v>2188</v>
+        <v>2198</v>
       </c>
       <c r="F241" s="8" t="s">
         <v>2184</v>
@@ -14099,36 +13999,34 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="8" t="s">
-        <v>2220</v>
+        <v>2208</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>2220</v>
+        <v>2208</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>2220</v>
+        <v>2208</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>2221</v>
-      </c>
-      <c r="E242" s="15" t="s">
-        <v>2188</v>
-      </c>
+        <v>2209</v>
+      </c>
+      <c r="E242" s="15"/>
       <c r="F242" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="8" t="s">
-        <v>2222</v>
+        <v>2210</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>2222</v>
+        <v>2210</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>2222</v>
+        <v>2210</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>2223</v>
+        <v>2211</v>
       </c>
       <c r="E243" s="15"/>
       <c r="F243" s="8" t="s">
@@ -14137,57 +14035,57 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="8" t="s">
-        <v>2224</v>
+        <v>2212</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>2224</v>
+        <v>2212</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>2224</v>
+        <v>2212</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>2225</v>
-      </c>
-      <c r="E244" s="15" t="s">
-        <v>2226</v>
-      </c>
+        <v>2213</v>
+      </c>
+      <c r="E244" s="15"/>
       <c r="F244" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" s="27" customFormat="1">
       <c r="A245" s="8" t="s">
-        <v>2227</v>
+        <v>2214</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>2227</v>
+        <v>2214</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>2227</v>
+        <v>2214</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>2227</v>
-      </c>
-      <c r="E245" s="15"/>
+        <v>2215</v>
+      </c>
+      <c r="E245" s="15" t="s">
+        <v>2188</v>
+      </c>
       <c r="F245" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="8" t="s">
-        <v>2228</v>
+        <v>2216</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>2228</v>
+        <v>2216</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>2228</v>
+        <v>2216</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>2229</v>
+        <v>2217</v>
       </c>
       <c r="E246" s="15" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="F246" s="8" t="s">
         <v>2184</v>
@@ -14195,19 +14093,19 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="8" t="s">
-        <v>2230</v>
+        <v>2218</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>2230</v>
+        <v>2218</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>2230</v>
+        <v>2218</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>2231</v>
+        <v>2219</v>
       </c>
       <c r="E247" s="15" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="F247" s="8" t="s">
         <v>2184</v>
@@ -14215,19 +14113,19 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="8" t="s">
-        <v>2232</v>
+        <v>2220</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>2232</v>
+        <v>2220</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>2232</v>
+        <v>2220</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>2233</v>
+        <v>2221</v>
       </c>
       <c r="E248" s="15" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="F248" s="8" t="s">
         <v>2184</v>
@@ -14235,39 +14133,37 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="8" t="s">
-        <v>2234</v>
+        <v>2222</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>2234</v>
+        <v>2222</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>2234</v>
+        <v>2222</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>2235</v>
-      </c>
-      <c r="E249" s="15" t="s">
-        <v>2198</v>
-      </c>
+        <v>2223</v>
+      </c>
+      <c r="E249" s="15"/>
       <c r="F249" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="8" t="s">
-        <v>2236</v>
+        <v>2224</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>2236</v>
+        <v>2224</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>2236</v>
+        <v>2224</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>2237</v>
+        <v>2225</v>
       </c>
       <c r="E250" s="15" t="s">
-        <v>2198</v>
+        <v>2226</v>
       </c>
       <c r="F250" s="8" t="s">
         <v>2184</v>
@@ -14275,21 +14171,139 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="8" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E251" s="15"/>
+      <c r="F251" s="8" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="8" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E252" s="15" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="8" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E253" s="15" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="8" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E254" s="15" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="8" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E255" s="15" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="8" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E256" s="15" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B257" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="C251" s="8" t="s">
+      <c r="C257" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="D251" s="4" t="s">
+      <c r="D257" s="4" t="s">
         <v>2239</v>
       </c>
-      <c r="E251" s="15" t="s">
+      <c r="E257" s="15" t="s">
         <v>2188</v>
       </c>
-      <c r="F251" s="8" t="s">
+      <c r="F257" s="8" t="s">
         <v>2184</v>
       </c>
     </row>
